--- a/Program/Other/URS會議審查紀錄/DbLayouts/L5-管理性作業/NegQueryCust.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L5-管理性作業/NegQueryCust.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3376ED2-8533-4DEE-B051-DEBD63ED376D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A90B687-7ED2-4C56-8250-A4F4D306F2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -157,10 +157,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Y;N</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Decimal</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -224,6 +220,11 @@
   <si>
     <t>acDateEq</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y:是
+N:否</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -921,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -942,10 +943,10 @@
       </c>
       <c r="B1" s="46"/>
       <c r="C1" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
@@ -970,7 +971,7 @@
       </c>
       <c r="B3" s="48"/>
       <c r="C3" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>18</v>
@@ -996,7 +997,7 @@
       </c>
       <c r="B5" s="48"/>
       <c r="C5" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="9"/>
@@ -1059,7 +1060,7 @@
         <v>31</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="41">
         <v>8</v>
@@ -1070,7 +1071,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="42" t="s">
         <v>32</v>
@@ -1085,7 +1086,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="32.4">
       <c r="A11" s="17">
         <v>3</v>
       </c>
@@ -1101,8 +1102,8 @@
       <c r="E11" s="41">
         <v>1</v>
       </c>
-      <c r="G11" s="26" t="s">
-        <v>36</v>
+      <c r="G11" s="22" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="32.4">
@@ -1110,19 +1111,19 @@
         <v>4</v>
       </c>
       <c r="B12" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>40</v>
-      </c>
       <c r="D12" s="42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="44">
         <v>3</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1450,7 +1451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
@@ -1476,32 +1477,32 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="43" t="s">
         <v>44</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L5-管理性作業/NegQueryCust.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L5-管理性作業/NegQueryCust.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A90B687-7ED2-4C56-8250-A4F4D306F2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74377AA4-7042-4FFD-940C-B3C9045A185A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -231,7 +231,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -923,10 +923,10 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="14" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" style="14" bestFit="1" customWidth="1"/>
@@ -937,7 +937,7 @@
     <col min="8" max="16384" width="21.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="45" t="s">
         <v>8</v>
       </c>
@@ -952,7 +952,7 @@
       <c r="F1" s="5"/>
       <c r="G1" s="23"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="45"/>
       <c r="B2" s="46"/>
       <c r="C2" s="7" t="s">
@@ -965,7 +965,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="24"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="48" t="s">
         <v>9</v>
       </c>
@@ -980,7 +980,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="24"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="45" t="s">
         <v>11</v>
       </c>
@@ -991,20 +991,18 @@
       <c r="F4" s="10"/>
       <c r="G4" s="24"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="48"/>
-      <c r="C5" s="11" t="s">
-        <v>37</v>
-      </c>
+      <c r="C5" s="11"/>
       <c r="D5" s="12"/>
       <c r="E5" s="9"/>
       <c r="F5" s="10"/>
       <c r="G5" s="24"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="45" t="s">
         <v>6</v>
       </c>
@@ -1015,7 +1013,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="28"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="45" t="s">
         <v>7</v>
       </c>
@@ -1026,7 +1024,7 @@
       <c r="F7" s="27"/>
       <c r="G7" s="24"/>
     </row>
-    <row r="8" spans="1:7" s="13" customFormat="1">
+    <row r="8" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1049,7 +1047,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>1</v>
       </c>
@@ -1066,7 +1064,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>2</v>
       </c>
@@ -1086,7 +1084,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="32.4">
+    <row r="11" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>3</v>
       </c>
@@ -1106,7 +1104,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="32.4">
+    <row r="12" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>4</v>
       </c>
@@ -1126,7 +1124,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>5</v>
       </c>
@@ -1141,7 +1139,7 @@
       </c>
       <c r="E13" s="21"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>6</v>
       </c>
@@ -1158,7 +1156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>7</v>
       </c>
@@ -1174,7 +1172,7 @@
       <c r="E15" s="21"/>
       <c r="G15" s="22"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>8</v>
       </c>
@@ -1192,28 +1190,28 @@
       </c>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="19"/>
       <c r="C17" s="20"/>
       <c r="D17" s="19"/>
       <c r="E17" s="21"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="19"/>
       <c r="C18" s="20"/>
       <c r="D18" s="19"/>
       <c r="E18" s="21"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="19"/>
       <c r="C19" s="20"/>
       <c r="D19" s="19"/>
       <c r="E19" s="21"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="19"/>
       <c r="C20" s="20"/>
@@ -1221,7 +1219,7 @@
       <c r="E20" s="21"/>
       <c r="G20" s="22"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="B21" s="19"/>
       <c r="C21" s="20"/>
@@ -1229,14 +1227,14 @@
       <c r="E21" s="21"/>
       <c r="G21" s="22"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="B22" s="19"/>
       <c r="C22" s="20"/>
       <c r="D22" s="19"/>
       <c r="E22" s="21"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="B23" s="19"/>
       <c r="C23" s="20"/>
@@ -1244,7 +1242,7 @@
       <c r="E23" s="21"/>
       <c r="G23" s="29"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="B24" s="19"/>
       <c r="C24" s="20"/>
@@ -1252,7 +1250,7 @@
       <c r="E24" s="21"/>
       <c r="G24" s="22"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="B25" s="19"/>
       <c r="C25" s="20"/>
@@ -1260,21 +1258,21 @@
       <c r="E25" s="21"/>
       <c r="G25" s="22"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="19"/>
       <c r="C26" s="20"/>
       <c r="D26" s="19"/>
       <c r="E26" s="21"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
       <c r="B27" s="19"/>
       <c r="C27" s="20"/>
       <c r="D27" s="19"/>
       <c r="E27" s="21"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="B28" s="19"/>
       <c r="C28" s="20"/>
@@ -1282,21 +1280,21 @@
       <c r="E28" s="21"/>
       <c r="G28" s="22"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
       <c r="B29" s="19"/>
       <c r="C29" s="20"/>
       <c r="D29" s="19"/>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="19"/>
       <c r="C30" s="20"/>
       <c r="D30" s="19"/>
       <c r="E30" s="21"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
       <c r="B31" s="19"/>
       <c r="C31" s="20"/>
@@ -1304,7 +1302,7 @@
       <c r="E31" s="21"/>
       <c r="G31" s="22"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
       <c r="B32" s="19"/>
       <c r="C32" s="20"/>
@@ -1312,120 +1310,120 @@
       <c r="E32" s="21"/>
       <c r="G32" s="22"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="B33" s="19"/>
       <c r="C33" s="20"/>
       <c r="D33" s="19"/>
       <c r="E33" s="21"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
       <c r="B34" s="19"/>
       <c r="C34" s="20"/>
       <c r="D34" s="19"/>
       <c r="E34" s="21"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
       <c r="B35" s="19"/>
       <c r="C35" s="20"/>
       <c r="D35" s="19"/>
       <c r="E35" s="21"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
       <c r="B36" s="19"/>
       <c r="C36" s="20"/>
       <c r="D36" s="19"/>
       <c r="E36" s="21"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
       <c r="B37" s="30"/>
       <c r="C37" s="31"/>
       <c r="D37" s="19"/>
       <c r="E37" s="39"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A38" s="17"/>
       <c r="B38" s="32"/>
       <c r="C38" s="33"/>
       <c r="D38" s="34"/>
       <c r="E38" s="40"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
       <c r="B39" s="35"/>
       <c r="C39" s="36"/>
       <c r="D39" s="34"/>
       <c r="E39" s="40"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
       <c r="B40" s="35"/>
       <c r="C40" s="37"/>
       <c r="D40" s="34"/>
       <c r="E40" s="40"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A41" s="17"/>
       <c r="B41" s="35"/>
       <c r="C41" s="38"/>
       <c r="D41" s="34"/>
       <c r="E41" s="40"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A42" s="17"/>
       <c r="B42" s="30"/>
       <c r="C42" s="31"/>
       <c r="D42" s="19"/>
       <c r="E42" s="39"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A43" s="17"/>
       <c r="B43" s="32"/>
       <c r="C43" s="33"/>
       <c r="D43" s="34"/>
       <c r="E43" s="40"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A44" s="17"/>
       <c r="B44" s="35"/>
       <c r="C44" s="36"/>
       <c r="D44" s="34"/>
       <c r="E44" s="40"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A45" s="17"/>
       <c r="B45" s="35"/>
       <c r="C45" s="37"/>
       <c r="D45" s="34"/>
       <c r="E45" s="40"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A46" s="17"/>
       <c r="B46" s="35"/>
       <c r="C46" s="38"/>
       <c r="D46" s="34"/>
       <c r="E46" s="40"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A47" s="17"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A48" s="17"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A49" s="17"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A50" s="17"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A51" s="17"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B52" s="19"/>
       <c r="C52" s="20"/>
       <c r="D52" s="19"/>
@@ -1456,7 +1454,7 @@
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
@@ -1464,7 +1462,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1475,7 +1473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>49</v>
       </c>
@@ -1483,7 +1481,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>50</v>
       </c>
@@ -1494,7 +1492,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>51</v>
       </c>
